--- a/biology/Zoologie/Gerbillus_pyramidum/Gerbillus_pyramidum.xlsx
+++ b/biology/Zoologie/Gerbillus_pyramidum/Gerbillus_pyramidum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gerbillus pyramidum ou Gerbillus (Gerbillus) pyramidum est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés appelée en français Grande gerbille[1] ou Grande gerbille d'Égypte[2] et présente tout au long de la vallée du Nil, au Tchad, au Niger et au Mali.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gerbillus pyramidum ou Gerbillus (Gerbillus) pyramidum est une espèce qui fait partie des rongeurs. C'est une gerbille de la famille des Muridés appelée en français Grande gerbille ou Grande gerbille d'Égypte et présente tout au long de la vallée du Nil, au Tchad, au Niger et au Mali.
 Il ne faut pas confondre cette espèce avec la Grande gerbille d'Aden et la Grande gerbille à queue courte.
 </t>
         </is>
